--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd274</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.45911885749753</v>
+        <v>0.539733</v>
       </c>
       <c r="H2">
-        <v>3.45911885749753</v>
+        <v>1.619199</v>
       </c>
       <c r="I2">
-        <v>0.2462531859427075</v>
+        <v>0.0338608224813917</v>
       </c>
       <c r="J2">
-        <v>0.2462531859427075</v>
+        <v>0.0338608224813917</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.5736315910054</v>
+        <v>12.230514</v>
       </c>
       <c r="N2">
-        <v>10.5736315910054</v>
+        <v>36.691542</v>
       </c>
       <c r="O2">
-        <v>0.4715431817334336</v>
+        <v>0.4767524845277322</v>
       </c>
       <c r="P2">
-        <v>0.4715431817334336</v>
+        <v>0.4767524845277322</v>
       </c>
       <c r="Q2">
-        <v>36.57544842867839</v>
+        <v>6.601212012762</v>
       </c>
       <c r="R2">
-        <v>36.57544842867839</v>
+        <v>59.410908114858</v>
       </c>
       <c r="S2">
-        <v>0.1161190108114191</v>
+        <v>0.01614323124615598</v>
       </c>
       <c r="T2">
-        <v>0.1161190108114191</v>
+        <v>0.01614323124615598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.45911885749753</v>
+        <v>0.539733</v>
       </c>
       <c r="H3">
-        <v>3.45911885749753</v>
+        <v>1.619199</v>
       </c>
       <c r="I3">
-        <v>0.2462531859427075</v>
+        <v>0.0338608224813917</v>
       </c>
       <c r="J3">
-        <v>0.2462531859427075</v>
+        <v>0.0338608224813917</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.36657222961389</v>
+        <v>2.417539666666667</v>
       </c>
       <c r="N3">
-        <v>2.36657222961389</v>
+        <v>7.252619</v>
       </c>
       <c r="O3">
-        <v>0.1055399925133962</v>
+        <v>0.09423708950643275</v>
       </c>
       <c r="P3">
-        <v>0.1055399925133962</v>
+        <v>0.09423708950643275</v>
       </c>
       <c r="Q3">
-        <v>8.186254627087381</v>
+        <v>1.304825936909</v>
       </c>
       <c r="R3">
-        <v>8.186254627087381</v>
+        <v>11.743433432181</v>
       </c>
       <c r="S3">
-        <v>0.02598955940079331</v>
+        <v>0.00319094535894034</v>
       </c>
       <c r="T3">
-        <v>0.02598955940079331</v>
+        <v>0.00319094535894034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.45911885749753</v>
+        <v>0.539733</v>
       </c>
       <c r="H4">
-        <v>3.45911885749753</v>
+        <v>1.619199</v>
       </c>
       <c r="I4">
-        <v>0.2462531859427075</v>
+        <v>0.0338608224813917</v>
       </c>
       <c r="J4">
-        <v>0.2462531859427075</v>
+        <v>0.0338608224813917</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.987589056683451</v>
+        <v>10.06935333333333</v>
       </c>
       <c r="N4">
-        <v>8.987589056683451</v>
+        <v>30.20806</v>
       </c>
       <c r="O4">
-        <v>0.4008118027779826</v>
+        <v>0.3925091962001163</v>
       </c>
       <c r="P4">
-        <v>0.4008118027779826</v>
+        <v>0.3925091962001163</v>
       </c>
       <c r="Q4">
-        <v>31.08913878941216</v>
+        <v>5.43476228266</v>
       </c>
       <c r="R4">
-        <v>31.08913878941216</v>
+        <v>48.91286054394</v>
       </c>
       <c r="S4">
-        <v>0.09870118339751835</v>
+        <v>0.01329068421484588</v>
       </c>
       <c r="T4">
-        <v>0.09870118339751835</v>
+        <v>0.01329068421484588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.45911885749753</v>
+        <v>0.539733</v>
       </c>
       <c r="H5">
-        <v>3.45911885749753</v>
+        <v>1.619199</v>
       </c>
       <c r="I5">
-        <v>0.2462531859427075</v>
+        <v>0.0338608224813917</v>
       </c>
       <c r="J5">
-        <v>0.2462531859427075</v>
+        <v>0.0338608224813917</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.49567118835465</v>
+        <v>0.9363953333333334</v>
       </c>
       <c r="N5">
-        <v>0.49567118835465</v>
+        <v>2.809186</v>
       </c>
       <c r="O5">
-        <v>0.02210502297518759</v>
+        <v>0.03650122976571881</v>
       </c>
       <c r="P5">
-        <v>0.02210502297518759</v>
+        <v>0.03650122976571881</v>
       </c>
       <c r="Q5">
-        <v>1.71458555475578</v>
+        <v>0.505403462446</v>
       </c>
       <c r="R5">
-        <v>1.71458555475578</v>
+        <v>4.548631162014</v>
       </c>
       <c r="S5">
-        <v>0.005443432332976691</v>
+        <v>0.001235961661449495</v>
       </c>
       <c r="T5">
-        <v>0.005443432332976691</v>
+        <v>0.001235961661449495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.69555986073156</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H6">
-        <v>9.69555986073156</v>
+        <v>11.140418</v>
       </c>
       <c r="I6">
-        <v>0.6902227427162309</v>
+        <v>0.2329693362375475</v>
       </c>
       <c r="J6">
-        <v>0.6902227427162309</v>
+        <v>0.2329693362375475</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.5736315910054</v>
+        <v>12.230514</v>
       </c>
       <c r="N6">
-        <v>10.5736315910054</v>
+        <v>36.691542</v>
       </c>
       <c r="O6">
-        <v>0.4715431817334336</v>
+        <v>0.4767524845277322</v>
       </c>
       <c r="P6">
-        <v>0.4715431817334336</v>
+        <v>0.4767524845277322</v>
       </c>
       <c r="Q6">
-        <v>102.5172780359151</v>
+        <v>45.41767943828399</v>
       </c>
       <c r="R6">
-        <v>102.5172780359151</v>
+        <v>408.7591149445559</v>
       </c>
       <c r="S6">
-        <v>0.3254698282051886</v>
+        <v>0.1110687098700274</v>
       </c>
       <c r="T6">
-        <v>0.3254698282051886</v>
+        <v>0.1110687098700274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.69555986073156</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H7">
-        <v>9.69555986073156</v>
+        <v>11.140418</v>
       </c>
       <c r="I7">
-        <v>0.6902227427162309</v>
+        <v>0.2329693362375475</v>
       </c>
       <c r="J7">
-        <v>0.6902227427162309</v>
+        <v>0.2329693362375475</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.36657222961389</v>
+        <v>2.417539666666667</v>
       </c>
       <c r="N7">
-        <v>2.36657222961389</v>
+        <v>7.252619</v>
       </c>
       <c r="O7">
-        <v>0.1055399925133962</v>
+        <v>0.09423708950643275</v>
       </c>
       <c r="P7">
-        <v>0.1055399925133962</v>
+        <v>0.09423708950643275</v>
       </c>
       <c r="Q7">
-        <v>22.94524271696642</v>
+        <v>8.97746747274911</v>
       </c>
       <c r="R7">
-        <v>22.94524271696642</v>
+        <v>80.79720725474199</v>
       </c>
       <c r="S7">
-        <v>0.0728461030988468</v>
+        <v>0.02195435219127199</v>
       </c>
       <c r="T7">
-        <v>0.0728461030988468</v>
+        <v>0.02195435219127199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.69555986073156</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H8">
-        <v>9.69555986073156</v>
+        <v>11.140418</v>
       </c>
       <c r="I8">
-        <v>0.6902227427162309</v>
+        <v>0.2329693362375475</v>
       </c>
       <c r="J8">
-        <v>0.6902227427162309</v>
+        <v>0.2329693362375475</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.987589056683451</v>
+        <v>10.06935333333333</v>
       </c>
       <c r="N8">
-        <v>8.987589056683451</v>
+        <v>30.20806</v>
       </c>
       <c r="O8">
-        <v>0.4008118027779826</v>
+        <v>0.3925091962001163</v>
       </c>
       <c r="P8">
-        <v>0.4008118027779826</v>
+        <v>0.3925091962001163</v>
       </c>
       <c r="Q8">
-        <v>87.13970770273029</v>
+        <v>37.39226837434222</v>
       </c>
       <c r="R8">
-        <v>87.13970770273029</v>
+        <v>336.5304153690799</v>
       </c>
       <c r="S8">
-        <v>0.2766494218264561</v>
+        <v>0.09144260690587439</v>
       </c>
       <c r="T8">
-        <v>0.2766494218264561</v>
+        <v>0.09144260690587439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.69555986073156</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H9">
-        <v>9.69555986073156</v>
+        <v>11.140418</v>
       </c>
       <c r="I9">
-        <v>0.6902227427162309</v>
+        <v>0.2329693362375475</v>
       </c>
       <c r="J9">
-        <v>0.6902227427162309</v>
+        <v>0.2329693362375475</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.49567118835465</v>
+        <v>0.9363953333333334</v>
       </c>
       <c r="N9">
-        <v>0.49567118835465</v>
+        <v>2.809186</v>
       </c>
       <c r="O9">
-        <v>0.02210502297518759</v>
+        <v>0.03650122976571881</v>
       </c>
       <c r="P9">
-        <v>0.02210502297518759</v>
+        <v>0.03650122976571881</v>
       </c>
       <c r="Q9">
-        <v>4.805809677932458</v>
+        <v>3.477278475527555</v>
       </c>
       <c r="R9">
-        <v>4.805809677932458</v>
+        <v>31.295506279748</v>
       </c>
       <c r="S9">
-        <v>0.01525738958573928</v>
+        <v>0.008503667270373723</v>
       </c>
       <c r="T9">
-        <v>0.01525738958573928</v>
+        <v>0.008503667270373723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.892322721591137</v>
+        <v>10.63672166666667</v>
       </c>
       <c r="H10">
-        <v>0.892322721591137</v>
+        <v>31.910165</v>
       </c>
       <c r="I10">
-        <v>0.06352407134106174</v>
+        <v>0.6673079914308979</v>
       </c>
       <c r="J10">
-        <v>0.06352407134106174</v>
+        <v>0.6673079914308979</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.5736315910054</v>
+        <v>12.230514</v>
       </c>
       <c r="N10">
-        <v>10.5736315910054</v>
+        <v>36.691542</v>
       </c>
       <c r="O10">
-        <v>0.4715431817334336</v>
+        <v>0.4767524845277322</v>
       </c>
       <c r="P10">
-        <v>0.4715431817334336</v>
+        <v>0.4767524845277322</v>
       </c>
       <c r="Q10">
-        <v>9.435091718387962</v>
+        <v>130.09257325827</v>
       </c>
       <c r="R10">
-        <v>9.435091718387962</v>
+        <v>1170.83315932443</v>
       </c>
       <c r="S10">
-        <v>0.02995434271682587</v>
+        <v>0.3181407428598912</v>
       </c>
       <c r="T10">
-        <v>0.02995434271682587</v>
+        <v>0.3181407428598912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.892322721591137</v>
+        <v>10.63672166666667</v>
       </c>
       <c r="H11">
-        <v>0.892322721591137</v>
+        <v>31.910165</v>
       </c>
       <c r="I11">
-        <v>0.06352407134106174</v>
+        <v>0.6673079914308979</v>
       </c>
       <c r="J11">
-        <v>0.06352407134106174</v>
+        <v>0.6673079914308979</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.36657222961389</v>
+        <v>2.417539666666667</v>
       </c>
       <c r="N11">
-        <v>2.36657222961389</v>
+        <v>7.252619</v>
       </c>
       <c r="O11">
-        <v>0.1055399925133962</v>
+        <v>0.09423708950643275</v>
       </c>
       <c r="P11">
-        <v>0.1055399925133962</v>
+        <v>0.09423708950643275</v>
       </c>
       <c r="Q11">
-        <v>2.111746172771071</v>
+        <v>25.71469655245945</v>
       </c>
       <c r="R11">
-        <v>2.111746172771071</v>
+        <v>231.432268972135</v>
       </c>
       <c r="S11">
-        <v>0.006704330013756102</v>
+        <v>0.06288516291683138</v>
       </c>
       <c r="T11">
-        <v>0.006704330013756102</v>
+        <v>0.06288516291683138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.892322721591137</v>
+        <v>10.63672166666667</v>
       </c>
       <c r="H12">
-        <v>0.892322721591137</v>
+        <v>31.910165</v>
       </c>
       <c r="I12">
-        <v>0.06352407134106174</v>
+        <v>0.6673079914308979</v>
       </c>
       <c r="J12">
-        <v>0.06352407134106174</v>
+        <v>0.6673079914308979</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.987589056683451</v>
+        <v>10.06935333333333</v>
       </c>
       <c r="N12">
-        <v>8.987589056683451</v>
+        <v>30.20806</v>
       </c>
       <c r="O12">
-        <v>0.4008118027779826</v>
+        <v>0.3925091962001163</v>
       </c>
       <c r="P12">
-        <v>0.4008118027779826</v>
+        <v>0.3925091962001163</v>
       </c>
       <c r="Q12">
-        <v>8.019829927602496</v>
+        <v>107.1049087699889</v>
       </c>
       <c r="R12">
-        <v>8.019829927602496</v>
+        <v>963.9441789299</v>
       </c>
       <c r="S12">
-        <v>0.02546119755400814</v>
+        <v>0.2619245233344558</v>
       </c>
       <c r="T12">
-        <v>0.02546119755400814</v>
+        <v>0.2619245233344558</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.63672166666667</v>
+      </c>
+      <c r="H13">
+        <v>31.910165</v>
+      </c>
+      <c r="I13">
+        <v>0.6673079914308979</v>
+      </c>
+      <c r="J13">
+        <v>0.6673079914308979</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9363953333333334</v>
+      </c>
+      <c r="N13">
+        <v>2.809186</v>
+      </c>
+      <c r="O13">
+        <v>0.03650122976571881</v>
+      </c>
+      <c r="P13">
+        <v>0.03650122976571881</v>
+      </c>
+      <c r="Q13">
+        <v>9.960176530632221</v>
+      </c>
+      <c r="R13">
+        <v>89.64158877569</v>
+      </c>
+      <c r="S13">
+        <v>0.02435756231971952</v>
+      </c>
+      <c r="T13">
+        <v>0.02435756231971952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.049821333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.149464</v>
+      </c>
+      <c r="I14">
+        <v>0.06586184985016284</v>
+      </c>
+      <c r="J14">
+        <v>0.06586184985016284</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.230514</v>
+      </c>
+      <c r="N14">
+        <v>36.691542</v>
+      </c>
+      <c r="O14">
+        <v>0.4767524845277322</v>
+      </c>
+      <c r="P14">
+        <v>0.4767524845277322</v>
+      </c>
+      <c r="Q14">
+        <v>12.839854514832</v>
+      </c>
+      <c r="R14">
+        <v>115.558690633488</v>
+      </c>
+      <c r="S14">
+        <v>0.03139980055165758</v>
+      </c>
+      <c r="T14">
+        <v>0.03139980055165759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.049821333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.149464</v>
+      </c>
+      <c r="I15">
+        <v>0.06586184985016284</v>
+      </c>
+      <c r="J15">
+        <v>0.06586184985016284</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.417539666666667</v>
+      </c>
+      <c r="N15">
+        <v>7.252619</v>
+      </c>
+      <c r="O15">
+        <v>0.09423708950643275</v>
+      </c>
+      <c r="P15">
+        <v>0.09423708950643275</v>
+      </c>
+      <c r="Q15">
+        <v>2.537984716246222</v>
+      </c>
+      <c r="R15">
+        <v>22.841862446216</v>
+      </c>
+      <c r="S15">
+        <v>0.00620662903938903</v>
+      </c>
+      <c r="T15">
+        <v>0.00620662903938903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.892322721591137</v>
-      </c>
-      <c r="H13">
-        <v>0.892322721591137</v>
-      </c>
-      <c r="I13">
-        <v>0.06352407134106174</v>
-      </c>
-      <c r="J13">
-        <v>0.06352407134106174</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.49567118835465</v>
-      </c>
-      <c r="N13">
-        <v>0.49567118835465</v>
-      </c>
-      <c r="O13">
-        <v>0.02210502297518759</v>
-      </c>
-      <c r="P13">
-        <v>0.02210502297518759</v>
-      </c>
-      <c r="Q13">
-        <v>0.4422986638069344</v>
-      </c>
-      <c r="R13">
-        <v>0.4422986638069344</v>
-      </c>
-      <c r="S13">
-        <v>0.001404201056471625</v>
-      </c>
-      <c r="T13">
-        <v>0.001404201056471625</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.049821333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.149464</v>
+      </c>
+      <c r="I16">
+        <v>0.06586184985016284</v>
+      </c>
+      <c r="J16">
+        <v>0.06586184985016284</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.06935333333333</v>
+      </c>
+      <c r="N16">
+        <v>30.20806</v>
+      </c>
+      <c r="O16">
+        <v>0.3925091962001163</v>
+      </c>
+      <c r="P16">
+        <v>0.3925091962001163</v>
+      </c>
+      <c r="Q16">
+        <v>10.57102194220444</v>
+      </c>
+      <c r="R16">
+        <v>95.13919747984001</v>
+      </c>
+      <c r="S16">
+        <v>0.02585138174494016</v>
+      </c>
+      <c r="T16">
+        <v>0.02585138174494016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.049821333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.149464</v>
+      </c>
+      <c r="I17">
+        <v>0.06586184985016284</v>
+      </c>
+      <c r="J17">
+        <v>0.06586184985016284</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9363953333333334</v>
+      </c>
+      <c r="N17">
+        <v>2.809186</v>
+      </c>
+      <c r="O17">
+        <v>0.03650122976571881</v>
+      </c>
+      <c r="P17">
+        <v>0.03650122976571881</v>
+      </c>
+      <c r="Q17">
+        <v>0.9830477973671111</v>
+      </c>
+      <c r="R17">
+        <v>8.847430176304</v>
+      </c>
+      <c r="S17">
+        <v>0.002404038514176067</v>
+      </c>
+      <c r="T17">
+        <v>0.002404038514176067</v>
       </c>
     </row>
   </sheetData>
